--- a/Years_selection.xlsx
+++ b/Years_selection.xlsx
@@ -124,9 +124,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -137,23 +137,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,6 +167,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -174,39 +182,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,14 +191,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,7 +206,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,8 +228,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,19 +250,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -320,187 +320,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -918,6 +918,45 @@
       <top/>
       <bottom style="medium">
         <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -937,32 +976,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -976,32 +1011,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1010,166 +1019,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="39" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="40" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="37" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="36" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="36" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="37" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="37" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="35" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="38" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1342,9 +1342,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="true" applyBorder="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true" applyBorder="true">
@@ -1712,8 +1709,8 @@
   <sheetPr/>
   <dimension ref="A1:AI12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AE12" sqref="AE12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
@@ -1822,10 +1819,10 @@
       <c r="AF1" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="AG1" s="59" t="s">
+      <c r="AG1" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="AI1" s="60"/>
+      <c r="AI1" s="59"/>
     </row>
     <row r="2" ht="26" customHeight="true" spans="1:35">
       <c r="A2" s="7" t="s">
@@ -1862,8 +1859,8 @@
       <c r="AD2" s="10"/>
       <c r="AE2" s="10"/>
       <c r="AF2" s="36"/>
-      <c r="AG2" s="61"/>
-      <c r="AI2" s="62" t="s">
+      <c r="AG2" s="60"/>
+      <c r="AI2" s="61" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1900,8 +1897,8 @@
       <c r="AD3" s="14"/>
       <c r="AE3" s="14"/>
       <c r="AF3" s="37"/>
-      <c r="AG3" s="63"/>
-      <c r="AI3" s="64"/>
+      <c r="AG3" s="62"/>
+      <c r="AI3" s="63"/>
     </row>
     <row r="4" ht="39" customHeight="true" spans="1:35">
       <c r="A4" s="15" t="s">
@@ -1940,8 +1937,8 @@
       <c r="AD4" s="18"/>
       <c r="AE4" s="18"/>
       <c r="AF4" s="38"/>
-      <c r="AG4" s="65"/>
-      <c r="AI4" s="66" t="s">
+      <c r="AG4" s="64"/>
+      <c r="AI4" s="65" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1980,9 +1977,9 @@
       <c r="AD5" s="49"/>
       <c r="AE5" s="47"/>
       <c r="AF5" s="56"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="68"/>
-      <c r="AI5" s="69" t="s">
+      <c r="AG5" s="66"/>
+      <c r="AH5" s="67"/>
+      <c r="AI5" s="68" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2023,7 +2020,7 @@
       <c r="AD6" s="22"/>
       <c r="AE6" s="22"/>
       <c r="AF6" s="39"/>
-      <c r="AG6" s="70"/>
+      <c r="AG6" s="69"/>
     </row>
     <row r="7" ht="17" customHeight="true" spans="1:33">
       <c r="A7" s="11"/>
@@ -2058,7 +2055,7 @@
       <c r="AD7" s="14"/>
       <c r="AE7" s="14"/>
       <c r="AF7" s="37"/>
-      <c r="AG7" s="63"/>
+      <c r="AG7" s="62"/>
     </row>
     <row r="8" ht="16.5" spans="1:33">
       <c r="A8" s="23" t="s">
@@ -2095,7 +2092,7 @@
       <c r="AD8" s="33"/>
       <c r="AE8" s="34"/>
       <c r="AF8" s="57"/>
-      <c r="AG8" s="71"/>
+      <c r="AG8" s="70"/>
     </row>
     <row r="9" s="1" customFormat="true" ht="16.5" spans="1:35">
       <c r="A9" s="27" t="s">
@@ -2150,8 +2147,8 @@
         <v>20</v>
       </c>
       <c r="AF9" s="6"/>
-      <c r="AG9" s="59"/>
-      <c r="AI9" s="60"/>
+      <c r="AG9" s="58"/>
+      <c r="AI9" s="59"/>
     </row>
     <row r="10" ht="16.5" spans="1:33">
       <c r="A10" s="3" t="s">
@@ -2250,7 +2247,7 @@
       <c r="AF10" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="AG10" s="59" t="s">
+      <c r="AG10" s="58" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2265,10 +2262,9 @@
         <v>2</v>
       </c>
       <c r="U12" s="29"/>
-      <c r="AD12" s="29">
-        <v>17</v>
-      </c>
-      <c r="AE12" s="58"/>
+      <c r="AE12" s="29">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
